--- a/experiment-eval.xlsx
+++ b/experiment-eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omzlette\Desktop\FIBO\Thesis\checker-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D8A69-1077-4529-B183-9BB2FD41F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8217AE8B-01A3-46C9-AB96-54620AC54011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{927E30DC-C2D8-4392-AC9B-55D70F75262D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="48">
   <si>
     <t>Game No.</t>
   </si>
@@ -153,6 +153,36 @@
   <si>
     <t>Hall Effect No. 4</t>
   </si>
+  <si>
+    <t>Bot Win?</t>
+  </si>
+  <si>
+    <t>Lose</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Avg. Diff</t>
+  </si>
+  <si>
+    <t>Avg. Signal</t>
+  </si>
+  <si>
+    <t>No Mag</t>
+  </si>
+  <si>
+    <t>Hall Effect 1</t>
+  </si>
+  <si>
+    <t>Hall Effect 2</t>
+  </si>
+  <si>
+    <t>Hall Effect 3</t>
+  </si>
+  <si>
+    <t>Hall Effect 4</t>
+  </si>
 </sst>
 </file>
 
@@ -221,14 +251,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,7 +300,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -281,8 +314,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Signal Read</a:t>
+              <a:t>Aver</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>age Signal Difference of Each Hall Effect Sensor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -299,7 +337,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -317,202 +355,29 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.3034155206243711E-2"/>
-          <c:y val="0.17865628800540304"/>
-          <c:w val="0.9089682229625955"/>
-          <c:h val="0.72651210265383492"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>Sheet2!$I$43:$I$44</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Hall Effect No. 1</c:v>
+                  <c:v>Hall Effect 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Diff</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$4:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$4:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>584</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>507</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF43-4DE1-9B97-8685CDBD8F68}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hall Effect No. 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -521,8 +386,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -531,127 +396,59 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$25:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+            <c:strRef>
+              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>No Mag</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$25:$B$41</c:f>
+              <c:f>Sheet2!$I$45:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>656</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>631</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>642</c:v>
+                  <c:v>127.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>642</c:v>
+                  <c:v>64.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>608</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
+                  <c:v>-4.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,165 +456,100 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EF43-4DE1-9B97-8685CDBD8F68}"/>
+              <c16:uniqueId val="{00000001-43E0-4F16-B08C-0700A625B4FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
+              <c:f>Sheet2!$M$43:$M$44</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Hall Effect No. 3</c:v>
+                  <c:v>Hall Effect 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Diff</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$46:$A$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+            <c:strRef>
+              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>No Mag</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$46:$B$62</c:f>
+              <c:f>Sheet2!$M$45:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>651</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>617</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628</c:v>
+                  <c:v>135.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>607</c:v>
+                  <c:v>74.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>483</c:v>
+                  <c:v>-3.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,163 +557,106 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EF43-4DE1-9B97-8685CDBD8F68}"/>
+              <c16:uniqueId val="{00000012-43E0-4F16-B08C-0700A625B4FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="7"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$64</c:f>
+              <c:f>Sheet2!$Q$43:$Q$44</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Hall Effect No. 4</c:v>
+                  <c:v>Hall Effect 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Diff</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$67:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+            <c:strRef>
+              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>No Mag</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$67:$B$83</c:f>
+              <c:f>Sheet2!$Q$45:$Q$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>656</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>634</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>616</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>638</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>548</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>505</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>497</c:v>
+                  <c:v>-6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,7 +664,114 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EF43-4DE1-9B97-8685CDBD8F68}"/>
+              <c16:uniqueId val="{00000015-43E0-4F16-B08C-0700A625B4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$U$43:$U$44</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hall Effect 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Mag</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$U$45:$U$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-43E0-4F16-B08C-0700A625B4FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1003,105 +785,525 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120292880"/>
-        <c:axId val="152999008"/>
+        <c:axId val="1008237503"/>
+        <c:axId val="1011788431"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$H$43:$H$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Signal</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$H$45:$H$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>509</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>660</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>636.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>573.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>523.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>504.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-43E0-4F16-B08C-0700A625B4FB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$L$43:$L$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Signal</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$L$45:$L$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>495</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>656</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>630.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>569.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>509.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>491.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-43E0-4F16-B08C-0700A625B4FB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$P$43:$P$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Signal</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$P$45:$P$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>494</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>651</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>616</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>554.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>502.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>487.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-43E0-4F16-B08C-0700A625B4FB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$T$43:$T$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Signal</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$T$45:$T$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>505</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>656</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>626.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>567.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>517</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>501</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-43E0-4F16-B08C-0700A625B4FB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120292880"/>
+        <c:axId val="1008237503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="152999008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="152999008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="450"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1130,7 +1332,66 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120292880"/>
+        <c:crossAx val="1011788431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011788431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008237503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1143,17 +1404,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.0092572676973043E-2"/>
-          <c:y val="0.10142716788324739"/>
-          <c:w val="0.81981469206956781"/>
-          <c:h val="6.5554043836058923E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1196,992 +1447,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Signal</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Difference</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.3034137980846186E-2"/>
-          <c:y val="0.19054430942088896"/>
-          <c:w val="0.9089682229625955"/>
-          <c:h val="0.72651210265383492"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hall Effect No. 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$4:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$4:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F7C-42E8-9386-88869120C7A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hall Effect No. 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$25:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$25:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F7C-42E8-9386-88869120C7A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hall Effect No. 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$46:$A$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$46:$C$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F7C-42E8-9386-88869120C7A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hall Effect No. 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$67:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$67:$C$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7F7C-42E8-9386-88869120C7A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="120292880"/>
-        <c:axId val="152999008"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="120292880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="152999008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="152999008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="120292880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.1914353126126516E-2"/>
-          <c:y val="0.10964961125078833"/>
-          <c:w val="0.82030319711716781"/>
-          <c:h val="6.4856296550947767E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2252,48 +1518,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2304,7 +1530,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2327,18 +1553,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2350,7 +1576,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2358,11 +1584,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2394,45 +1620,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2444,34 +1660,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2493,13 +1705,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2514,15 +1728,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2533,16 +1747,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2551,10 +1766,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -2570,15 +1785,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2597,16 +1818,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2615,16 +1837,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2633,16 +1856,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2663,7 +1887,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2671,7 +1895,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2684,17 +1908,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2702,10 +1915,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2726,7 +1939,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2735,13 +1948,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2755,7 +1969,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2771,8 +1985,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2788,17 +2002,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2806,528 +2009,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3336,23 +2025,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>567836</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>115766</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>29306</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD790CAF-CA52-1C58-CF0D-50546808CEA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE00261-A463-FE88-BA35-BBF999099AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,44 +2054,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>564174</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>65943</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FCFA25-F98A-4491-A753-8D18BF6C1543}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3710,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42AF913-5862-428B-B09E-8E4BC190229D}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,6 +2390,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I1" t="s">
         <v>13</v>
       </c>
@@ -3759,6 +2413,9 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3776,6 +2433,9 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3793,6 +2453,9 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3810,6 +2473,9 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3827,6 +2493,9 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3844,6 +2513,9 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3861,6 +2533,9 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3878,6 +2553,9 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3895,6 +2573,9 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3912,6 +2593,9 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3929,6 +2613,9 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3946,6 +2633,9 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3963,6 +2653,9 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3980,6 +2673,9 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3997,6 +2693,9 @@
       <c r="E16" t="s">
         <v>6</v>
       </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4014,6 +2713,9 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4031,6 +2733,9 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -4048,6 +2753,9 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4065,6 +2773,9 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4081,6 +2792,9 @@
       </c>
       <c r="E21" t="s">
         <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,6 +2825,9 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4127,6 +2844,9 @@
       </c>
       <c r="E24" t="s">
         <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4145,6 +2865,9 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4162,6 +2885,9 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4179,6 +2905,9 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4196,6 +2925,9 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4213,6 +2945,9 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4230,6 +2965,9 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4247,6 +2985,9 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4264,6 +3005,9 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -4281,6 +3025,9 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4298,6 +3045,9 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4315,6 +3065,9 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4332,6 +3085,9 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -4349,6 +3105,9 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4366,6 +3125,9 @@
       <c r="E38" t="s">
         <v>10</v>
       </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4383,6 +3145,9 @@
       <c r="E39" t="s">
         <v>10</v>
       </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4400,6 +3165,9 @@
       <c r="E40" t="s">
         <v>10</v>
       </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -4417,6 +3185,9 @@
       <c r="E41" t="s">
         <v>10</v>
       </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4433,6 +3204,9 @@
       </c>
       <c r="E42" t="s">
         <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4855,86 +3629,86 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>627</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>C10-C2</f>
         <v>118</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>631</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>C11-C3</f>
         <v>136</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>628</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" ref="D12:D13" si="0">C12-C4</f>
         <v>134</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>634</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5023,86 +3797,86 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>516</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f>C18-C2</f>
         <v>7</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>502</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f>C19-C3</f>
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>516</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f>C20-C4</f>
         <v>22</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>527</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f>C21-C5</f>
         <v>22</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5191,86 +3965,86 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>625</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f>C26-C2</f>
         <v>116</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>642</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" ref="D27:D29" si="2">C27-C3</f>
         <v>147</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>617</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>616</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5359,86 +4133,86 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>1</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>15</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>517</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <f>C34-C2</f>
         <v>8</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>2</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>15</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>517</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <f t="shared" ref="D35:D37" si="4">C35-C3</f>
         <v>22</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>3</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>15</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>504</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>15</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>509</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5527,86 +4301,86 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>1</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>5</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>641</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <f>C42-C2</f>
         <v>132</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>2</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>5</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>642</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <f t="shared" ref="D43:D45" si="6">C43-C3</f>
         <v>147</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>3</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>5</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>607</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>4</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>5</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>638</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5695,86 +4469,86 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>1</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>15</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>522</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <f>C50-C2</f>
         <v>13</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>2</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>15</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>515</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <f t="shared" ref="D51:D53" si="8">C51-C3</f>
         <v>20</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>3</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>15</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>494</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>4</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>15</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>523</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5863,86 +4637,86 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>1</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>5</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>652</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <f>C58-C2</f>
         <v>143</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>2</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>5</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>608</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <f>C59-C3</f>
         <v>113</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>3</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>5</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>612</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <f>C60-C4</f>
         <v>118</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>4</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>5</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>617</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <f>C61-C5</f>
         <v>112</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6031,86 +4805,86 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>1</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>15</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>540</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <f>C66-C2</f>
         <v>31</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>2</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>15</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>504</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <f>C67-C3</f>
         <v>9</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>3</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>15</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>495</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <f>C68-C4</f>
         <v>1</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>4</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>15</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>509</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <f>C69-C5</f>
         <v>4</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7101,10 +5875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925C1047-46D4-4B50-A825-9D4AD104B475}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,16 +5888,18 @@
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7458,13 +6234,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -7636,7 +6412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -7654,7 +6430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -7672,7 +6448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -7690,7 +6466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -7708,7 +6484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15</v>
       </c>
@@ -7726,7 +6502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
@@ -7744,7 +6520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20</v>
       </c>
@@ -7762,7 +6538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20</v>
       </c>
@@ -7780,7 +6556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20</v>
       </c>
@@ -7798,16 +6574,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="H43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="T43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -7823,8 +6615,32 @@
       <c r="E44" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s">
+        <v>42</v>
+      </c>
+      <c r="U44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -7835,8 +6651,44 @@
         <f>B45-B45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45">
+        <v>509</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45">
+        <v>495</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45">
+        <v>494</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T45">
+        <v>505</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -7850,8 +6702,44 @@
       <c r="E46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>660</v>
+      </c>
+      <c r="I46">
+        <v>151</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>656</v>
+      </c>
+      <c r="M46">
+        <v>161</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>651</v>
+      </c>
+      <c r="Q46">
+        <v>157</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>656</v>
+      </c>
+      <c r="U46">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -7868,8 +6756,52 @@
       <c r="E47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <f>AVERAGE(B5:B8)</f>
+        <v>636.25</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(C5:C8)</f>
+        <v>127.25</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <f>AVERAGE(B26:B29)</f>
+        <v>630.75</v>
+      </c>
+      <c r="M47">
+        <f>AVERAGE(C26:C29)</f>
+        <v>135.75</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <f>AVERAGE(B47:B50)</f>
+        <v>616</v>
+      </c>
+      <c r="Q47">
+        <f>AVERAGE(C47:C50)</f>
+        <v>122</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <f>AVERAGE(B68:B71)</f>
+        <v>626.25</v>
+      </c>
+      <c r="U47">
+        <f>AVERAGE(C68:C71)</f>
+        <v>121.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -7886,8 +6818,52 @@
       <c r="E48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <f>AVERAGE(B9:B12)</f>
+        <v>573.75</v>
+      </c>
+      <c r="I48">
+        <f>AVERAGE(C9:C12)</f>
+        <v>64.75</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <f>AVERAGE(B30:B33)</f>
+        <v>569.75</v>
+      </c>
+      <c r="M48">
+        <f>AVERAGE(C30:C33)</f>
+        <v>74.75</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <f>AVERAGE(B51:B54)</f>
+        <v>554.5</v>
+      </c>
+      <c r="Q48">
+        <f>AVERAGE(C51:C54)</f>
+        <v>60.5</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <f>AVERAGE(B72:B75)</f>
+        <v>567.75</v>
+      </c>
+      <c r="U48">
+        <f>AVERAGE(C72:C75)</f>
+        <v>62.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -7904,8 +6880,52 @@
       <c r="E49" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <f>AVERAGE(B13:B16)</f>
+        <v>523.75</v>
+      </c>
+      <c r="I49">
+        <f>AVERAGE(C13:C16)</f>
+        <v>14.75</v>
+      </c>
+      <c r="K49">
+        <v>15</v>
+      </c>
+      <c r="L49">
+        <f>AVERAGE(B34:B37)</f>
+        <v>509.5</v>
+      </c>
+      <c r="M49">
+        <f>AVERAGE(C34:C37)</f>
+        <v>14.5</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
+      </c>
+      <c r="P49">
+        <f>AVERAGE(B55:B58)</f>
+        <v>502.25</v>
+      </c>
+      <c r="Q49">
+        <f>AVERAGE(C55:C58)</f>
+        <v>8.25</v>
+      </c>
+      <c r="S49">
+        <v>15</v>
+      </c>
+      <c r="T49">
+        <f>AVERAGE(B76:B79)</f>
+        <v>517</v>
+      </c>
+      <c r="U49">
+        <f>AVERAGE(C76:C79)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -7922,8 +6942,52 @@
       <c r="E50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <f>AVERAGE(B17:B20)</f>
+        <v>504.25</v>
+      </c>
+      <c r="I50">
+        <f>AVERAGE(C17:C20)</f>
+        <v>-4.75</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE(B38:B41)</f>
+        <v>491.75</v>
+      </c>
+      <c r="M50">
+        <f>AVERAGE(C38:C41)</f>
+        <v>-3.25</v>
+      </c>
+      <c r="O50">
+        <v>20</v>
+      </c>
+      <c r="P50">
+        <f>AVERAGE(B59:B62)</f>
+        <v>487.75</v>
+      </c>
+      <c r="Q50">
+        <f>AVERAGE(C59:C62)</f>
+        <v>-6.25</v>
+      </c>
+      <c r="S50">
+        <v>20</v>
+      </c>
+      <c r="T50">
+        <f>AVERAGE(B80:B83)</f>
+        <v>501</v>
+      </c>
+      <c r="U50">
+        <f>AVERAGE(C80:C83)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -7941,7 +7005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -7959,7 +7023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
@@ -7977,7 +7041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -7995,7 +7059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -8013,7 +7077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -8031,7 +7095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -8049,7 +7113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -8067,7 +7131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -8085,7 +7149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20</v>
       </c>
@@ -8103,7 +7167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20</v>
       </c>
@@ -8121,7 +7185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
@@ -8139,14 +7203,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8481,11 +7545,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="T43:U43"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A64:E64"/>
+    <mergeCell ref="H43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/experiment-eval.xlsx
+++ b/experiment-eval.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omzlette\Desktop\FIBO\Thesis\checker-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8217AE8B-01A3-46C9-AB96-54620AC54011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D20910-0315-47C7-9AF8-21A6581BF0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{927E30DC-C2D8-4392-AC9B-55D70F75262D}"/>
   </bookViews>
@@ -256,10 +256,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -364,7 +364,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$43:$I$44</c:f>
+              <c:f>Sheet2!$I$47:$I$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -402,7 +402,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -428,7 +428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$45:$I$50</c:f>
+              <c:f>Sheet2!$I$49:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -465,7 +465,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$43:$M$44</c:f>
+              <c:f>Sheet2!$M$47:$M$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -503,7 +503,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -529,7 +529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$M$45:$M$50</c:f>
+              <c:f>Sheet2!$M$49:$M$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -566,7 +566,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$Q$43:$Q$44</c:f>
+              <c:f>Sheet2!$Q$47:$Q$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -610,7 +610,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -636,7 +636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$Q$45:$Q$50</c:f>
+              <c:f>Sheet2!$Q$49:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -673,7 +673,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$U$43:$U$44</c:f>
+              <c:f>Sheet2!$U$47:$U$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -717,7 +717,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$G$45:$G$50</c:f>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -743,7 +743,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$U$45:$U$50</c:f>
+              <c:f>Sheet2!$U$49:$U$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -798,7 +798,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$H$43:$H$44</c15:sqref>
+                          <c15:sqref>Sheet2!$H$47:$H$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -842,7 +842,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -874,7 +874,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$H$45:$H$50</c15:sqref>
+                          <c15:sqref>Sheet2!$H$49:$H$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -916,10 +916,10 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$L$43:$L$44</c15:sqref>
+                          <c15:sqref>Sheet2!$L$47:$L$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -960,10 +960,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -992,10 +992,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$L$45:$L$50</c15:sqref>
+                          <c15:sqref>Sheet2!$L$49:$L$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1024,7 +1024,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-43E0-4F16-B08C-0700A625B4FB}"/>
                   </c:ext>
@@ -1037,10 +1037,10 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$P$43:$P$44</c15:sqref>
+                          <c15:sqref>Sheet2!$P$47:$P$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1087,10 +1087,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1119,10 +1119,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$P$45:$P$50</c15:sqref>
+                          <c15:sqref>Sheet2!$P$49:$P$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1151,7 +1151,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-43E0-4F16-B08C-0700A625B4FB}"/>
                   </c:ext>
@@ -1164,10 +1164,10 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$T$43:$T$44</c15:sqref>
+                          <c15:sqref>Sheet2!$T$47:$T$48</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1214,10 +1214,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$G$45:$G$50</c15:sqref>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1246,10 +1246,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$T$45:$T$50</c15:sqref>
+                          <c15:sqref>Sheet2!$T$49:$T$54</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1278,7 +1278,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-43E0-4F16-B08C-0700A625B4FB}"/>
                   </c:ext>
@@ -1478,7 +1478,1260 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aver</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>age Signal of Each Hall Effect Sensor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$47:$H$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hall Effect 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Signal</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Mag</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$49:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>636.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>573.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>523.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>504.25</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B164-46D4-A4F2-73D8E4518E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$47:$L$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hall Effect 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Signal</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Mag</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$49:$L$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>569.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>509.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>491.75</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B164-46D4-A4F2-73D8E4518E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$47:$P$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hall Effect 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Signal</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Mag</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$P$49:$P$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>554.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>502.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>487.75</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B164-46D4-A4F2-73D8E4518E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$T$47:$T$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Hall Effect 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg. Signal</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$49:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Mag</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$T$49:$T$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>626.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>567.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>501</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B164-46D4-A4F2-73D8E4518E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1008237503"/>
+        <c:axId val="1011788431"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$I$47:$I$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Diff</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$I$49:$I$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>127.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>64.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-4.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B164-46D4-A4F2-73D8E4518E96}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$M$47:$M$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Diff</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$M$49:$M$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>135.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>74.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-3.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B164-46D4-A4F2-73D8E4518E96}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$Q$47:$Q$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Diff</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$Q$49:$Q$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-6.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B164-46D4-A4F2-73D8E4518E96}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$U$47:$U$48</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Hall Effect 4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Avg. Diff</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$G$49:$G$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>No Mag</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$U$49:$U$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>121.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>62.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-B164-46D4-A4F2-73D8E4518E96}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1008237503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011788431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011788431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="475"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1008237503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2021,20 +3274,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2059,13 +3815,51 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59445ACB-E9F7-4BE2-8FE5-CCCBF956A98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2103,7 +3897,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2209,7 +4003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2351,7 +4145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5877,8 +7671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925C1047-46D4-4B50-A825-9D4AD104B475}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E20"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,13 +7687,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6234,13 +8028,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -6575,29 +8369,13 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="H43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="L43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M43" s="5"/>
-      <c r="P43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q43" s="5"/>
-      <c r="T43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6615,30 +8393,6 @@
       <c r="E44" t="s">
         <v>34</v>
       </c>
-      <c r="H44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" t="s">
-        <v>42</v>
-      </c>
-      <c r="M44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P44" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>41</v>
-      </c>
-      <c r="T44" t="s">
-        <v>42</v>
-      </c>
-      <c r="U44" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6651,42 +8405,6 @@
         <f>B45-B45</f>
         <v>0</v>
       </c>
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45">
-        <v>509</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45">
-        <v>495</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>43</v>
-      </c>
-      <c r="P45">
-        <v>494</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="S45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T45">
-        <v>505</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -6702,42 +8420,6 @@
       <c r="E46" t="s">
         <v>22</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>660</v>
-      </c>
-      <c r="I46">
-        <v>151</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>656</v>
-      </c>
-      <c r="M46">
-        <v>161</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>651</v>
-      </c>
-      <c r="Q46">
-        <v>157</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>656</v>
-      </c>
-      <c r="U46">
-        <v>151</v>
-      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -6756,50 +8438,22 @@
       <c r="E47" t="s">
         <v>22</v>
       </c>
-      <c r="G47">
-        <v>5</v>
-      </c>
-      <c r="H47">
-        <f>AVERAGE(B5:B8)</f>
-        <v>636.25</v>
-      </c>
-      <c r="I47">
-        <f>AVERAGE(C5:C8)</f>
-        <v>127.25</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47">
-        <f>AVERAGE(B26:B29)</f>
-        <v>630.75</v>
-      </c>
-      <c r="M47">
-        <f>AVERAGE(C26:C29)</f>
-        <v>135.75</v>
-      </c>
-      <c r="O47">
-        <v>5</v>
-      </c>
-      <c r="P47">
-        <f>AVERAGE(B47:B50)</f>
-        <v>616</v>
-      </c>
-      <c r="Q47">
-        <f>AVERAGE(C47:C50)</f>
-        <v>122</v>
-      </c>
-      <c r="S47">
-        <v>5</v>
-      </c>
-      <c r="T47">
-        <f>AVERAGE(B68:B71)</f>
-        <v>626.25</v>
-      </c>
-      <c r="U47">
-        <f>AVERAGE(C68:C71)</f>
-        <v>121.25</v>
-      </c>
+      <c r="H47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="L47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="P47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="4"/>
+      <c r="T47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -6818,49 +8472,29 @@
       <c r="E48" t="s">
         <v>22</v>
       </c>
-      <c r="G48">
-        <v>10</v>
-      </c>
-      <c r="H48">
-        <f>AVERAGE(B9:B12)</f>
-        <v>573.75</v>
-      </c>
-      <c r="I48">
-        <f>AVERAGE(C9:C12)</f>
-        <v>64.75</v>
-      </c>
-      <c r="K48">
-        <v>10</v>
-      </c>
-      <c r="L48">
-        <f>AVERAGE(B30:B33)</f>
-        <v>569.75</v>
-      </c>
-      <c r="M48">
-        <f>AVERAGE(C30:C33)</f>
-        <v>74.75</v>
-      </c>
-      <c r="O48">
-        <v>10</v>
-      </c>
-      <c r="P48">
-        <f>AVERAGE(B51:B54)</f>
-        <v>554.5</v>
-      </c>
-      <c r="Q48">
-        <f>AVERAGE(C51:C54)</f>
-        <v>60.5</v>
-      </c>
-      <c r="S48">
-        <v>10</v>
-      </c>
-      <c r="T48">
-        <f>AVERAGE(B72:B75)</f>
-        <v>567.75</v>
-      </c>
-      <c r="U48">
-        <f>AVERAGE(C72:C75)</f>
-        <v>62.75</v>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s">
+        <v>42</v>
+      </c>
+      <c r="U48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -6880,49 +8514,41 @@
       <c r="E49" t="s">
         <v>22</v>
       </c>
-      <c r="G49">
-        <v>15</v>
+      <c r="G49" t="s">
+        <v>43</v>
       </c>
       <c r="H49">
-        <f>AVERAGE(B13:B16)</f>
-        <v>523.75</v>
+        <v>509</v>
       </c>
       <c r="I49">
-        <f>AVERAGE(C13:C16)</f>
-        <v>14.75</v>
-      </c>
-      <c r="K49">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>43</v>
       </c>
       <c r="L49">
-        <f>AVERAGE(B34:B37)</f>
-        <v>509.5</v>
+        <v>495</v>
       </c>
       <c r="M49">
-        <f>AVERAGE(C34:C37)</f>
-        <v>14.5</v>
-      </c>
-      <c r="O49">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
       </c>
       <c r="P49">
-        <f>AVERAGE(B55:B58)</f>
-        <v>502.25</v>
+        <v>494</v>
       </c>
       <c r="Q49">
-        <f>AVERAGE(C55:C58)</f>
-        <v>8.25</v>
-      </c>
-      <c r="S49">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>43</v>
       </c>
       <c r="T49">
-        <f>AVERAGE(B76:B79)</f>
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="U49">
-        <f>AVERAGE(C76:C79)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -6943,48 +8569,40 @@
         <v>22</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <f>AVERAGE(B17:B20)</f>
-        <v>504.25</v>
+        <v>660</v>
       </c>
       <c r="I50">
-        <f>AVERAGE(C17:C20)</f>
-        <v>-4.75</v>
+        <v>151</v>
       </c>
       <c r="K50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <f>AVERAGE(B38:B41)</f>
-        <v>491.75</v>
+        <v>656</v>
       </c>
       <c r="M50">
-        <f>AVERAGE(C38:C41)</f>
-        <v>-3.25</v>
+        <v>161</v>
       </c>
       <c r="O50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <f>AVERAGE(B59:B62)</f>
-        <v>487.75</v>
+        <v>651</v>
       </c>
       <c r="Q50">
-        <f>AVERAGE(C59:C62)</f>
-        <v>-6.25</v>
+        <v>157</v>
       </c>
       <c r="S50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <f>AVERAGE(B80:B83)</f>
-        <v>501</v>
+        <v>656</v>
       </c>
       <c r="U50">
-        <f>AVERAGE(C80:C83)</f>
-        <v>-4</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -7004,6 +8622,50 @@
       <c r="E51" t="s">
         <v>22</v>
       </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(B5:B8)</f>
+        <v>636.25</v>
+      </c>
+      <c r="I51">
+        <f>AVERAGE(C5:C8)</f>
+        <v>127.25</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <f>AVERAGE(B26:B29)</f>
+        <v>630.75</v>
+      </c>
+      <c r="M51">
+        <f>AVERAGE(C26:C29)</f>
+        <v>135.75</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <f>AVERAGE(B47:B50)</f>
+        <v>616</v>
+      </c>
+      <c r="Q51">
+        <f>AVERAGE(C47:C50)</f>
+        <v>122</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <f>AVERAGE(B68:B71)</f>
+        <v>626.25</v>
+      </c>
+      <c r="U51">
+        <f>AVERAGE(C68:C71)</f>
+        <v>121.25</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -7022,6 +8684,50 @@
       <c r="E52" t="s">
         <v>22</v>
       </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <f>AVERAGE(B9:B12)</f>
+        <v>573.75</v>
+      </c>
+      <c r="I52">
+        <f>AVERAGE(C9:C12)</f>
+        <v>64.75</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <f>AVERAGE(B30:B33)</f>
+        <v>569.75</v>
+      </c>
+      <c r="M52">
+        <f>AVERAGE(C30:C33)</f>
+        <v>74.75</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52">
+        <f>AVERAGE(B51:B54)</f>
+        <v>554.5</v>
+      </c>
+      <c r="Q52">
+        <f>AVERAGE(C51:C54)</f>
+        <v>60.5</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <f>AVERAGE(B72:B75)</f>
+        <v>567.75</v>
+      </c>
+      <c r="U52">
+        <f>AVERAGE(C72:C75)</f>
+        <v>62.75</v>
+      </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -7040,6 +8746,50 @@
       <c r="E53" t="s">
         <v>22</v>
       </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <f>AVERAGE(B13:B16)</f>
+        <v>523.75</v>
+      </c>
+      <c r="I53">
+        <f>AVERAGE(C13:C16)</f>
+        <v>14.75</v>
+      </c>
+      <c r="K53">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <f>AVERAGE(B34:B37)</f>
+        <v>509.5</v>
+      </c>
+      <c r="M53">
+        <f>AVERAGE(C34:C37)</f>
+        <v>14.5</v>
+      </c>
+      <c r="O53">
+        <v>15</v>
+      </c>
+      <c r="P53">
+        <f>AVERAGE(B55:B58)</f>
+        <v>502.25</v>
+      </c>
+      <c r="Q53">
+        <f>AVERAGE(C55:C58)</f>
+        <v>8.25</v>
+      </c>
+      <c r="S53">
+        <v>15</v>
+      </c>
+      <c r="T53">
+        <f>AVERAGE(B76:B79)</f>
+        <v>517</v>
+      </c>
+      <c r="U53">
+        <f>AVERAGE(C76:C79)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -7058,6 +8808,50 @@
       <c r="E54" t="s">
         <v>22</v>
       </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <f>AVERAGE(B17:B20)</f>
+        <v>504.25</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE(C17:C20)</f>
+        <v>-4.75</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
+      </c>
+      <c r="L54">
+        <f>AVERAGE(B38:B41)</f>
+        <v>491.75</v>
+      </c>
+      <c r="M54">
+        <f>AVERAGE(C38:C41)</f>
+        <v>-3.25</v>
+      </c>
+      <c r="O54">
+        <v>20</v>
+      </c>
+      <c r="P54">
+        <f>AVERAGE(B59:B62)</f>
+        <v>487.75</v>
+      </c>
+      <c r="Q54">
+        <f>AVERAGE(C59:C62)</f>
+        <v>-6.25</v>
+      </c>
+      <c r="S54">
+        <v>20</v>
+      </c>
+      <c r="T54">
+        <f>AVERAGE(B80:B83)</f>
+        <v>501</v>
+      </c>
+      <c r="U54">
+        <f>AVERAGE(C80:C83)</f>
+        <v>-4</v>
+      </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -7204,13 +8998,13 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -7546,14 +9340,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="T47:U47"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="H43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
